--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_100ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_100ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3602,28 +3602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8069.360371078492</v>
+        <v>8227.90326856486</v>
       </c>
       <c r="AB2" t="n">
-        <v>11040.85485476493</v>
+        <v>11257.78024152478</v>
       </c>
       <c r="AC2" t="n">
-        <v>9987.131163362857</v>
+        <v>10183.35349566704</v>
       </c>
       <c r="AD2" t="n">
-        <v>8069360.371078492</v>
+        <v>8227903.268564859</v>
       </c>
       <c r="AE2" t="n">
-        <v>11040854.85476493</v>
+        <v>11257780.24152478</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.622385836057876e-07</v>
+        <v>1.040288581844599e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.03020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>9987131.163362857</v>
+        <v>10183353.49566704</v>
       </c>
     </row>
     <row r="3">
@@ -3708,28 +3708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2678.721392469743</v>
+        <v>2764.00534541947</v>
       </c>
       <c r="AB3" t="n">
-        <v>3665.144786024644</v>
+        <v>3781.83405291293</v>
       </c>
       <c r="AC3" t="n">
-        <v>3315.348511709328</v>
+        <v>3420.901118740207</v>
       </c>
       <c r="AD3" t="n">
-        <v>2678721.392469743</v>
+        <v>2764005.34541947</v>
       </c>
       <c r="AE3" t="n">
-        <v>3665144.786024644</v>
+        <v>3781834.05291293</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.057078561704083e-06</v>
+        <v>1.955872097572902e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.37604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3315348.511709328</v>
+        <v>3420901.118740207</v>
       </c>
     </row>
     <row r="4">
@@ -3814,28 +3814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2036.74138371552</v>
+        <v>2109.829736051568</v>
       </c>
       <c r="AB4" t="n">
-        <v>2786.759415887797</v>
+        <v>2886.762123984514</v>
       </c>
       <c r="AC4" t="n">
-        <v>2520.79500847687</v>
+        <v>2611.253598467519</v>
       </c>
       <c r="AD4" t="n">
-        <v>2036741.383715519</v>
+        <v>2109829.736051567</v>
       </c>
       <c r="AE4" t="n">
-        <v>2786759.415887797</v>
+        <v>2886762.123984514</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.239871749368341e-06</v>
+        <v>2.294087352645886e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.25520833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2520795.00847687</v>
+        <v>2611253.598467519</v>
       </c>
     </row>
     <row r="5">
@@ -3920,28 +3920,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1773.132754090708</v>
+        <v>1846.135765572184</v>
       </c>
       <c r="AB5" t="n">
-        <v>2426.078459243166</v>
+        <v>2525.964400217686</v>
       </c>
       <c r="AC5" t="n">
-        <v>2194.5369361155</v>
+        <v>2284.889903074211</v>
       </c>
       <c r="AD5" t="n">
-        <v>1773132.754090708</v>
+        <v>1846135.765572184</v>
       </c>
       <c r="AE5" t="n">
-        <v>2426078.459243166</v>
+        <v>2525964.400217686</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.336593124804418e-06</v>
+        <v>2.473047220254337e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.36979166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2194536.936115501</v>
+        <v>2284889.903074211</v>
       </c>
     </row>
     <row r="6">
@@ -4026,28 +4026,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1616.906536752099</v>
+        <v>1689.994799579596</v>
       </c>
       <c r="AB6" t="n">
-        <v>2212.322856466201</v>
+        <v>2312.32544209337</v>
       </c>
       <c r="AC6" t="n">
-        <v>2001.181868059696</v>
+        <v>2091.64034726912</v>
       </c>
       <c r="AD6" t="n">
-        <v>1616906.536752099</v>
+        <v>1689994.799579596</v>
       </c>
       <c r="AE6" t="n">
-        <v>2212322.856466201</v>
+        <v>2312325.44209337</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.396843393364145e-06</v>
+        <v>2.584525991479511e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.87916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2001181.868059696</v>
+        <v>2091640.347269119</v>
       </c>
     </row>
     <row r="7">
@@ -4132,28 +4132,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1508.822804484304</v>
+        <v>1569.886148407267</v>
       </c>
       <c r="AB7" t="n">
-        <v>2064.437925659668</v>
+        <v>2147.987486739671</v>
       </c>
       <c r="AC7" t="n">
-        <v>1867.410867491535</v>
+        <v>1942.986575724608</v>
       </c>
       <c r="AD7" t="n">
-        <v>1508822.804484304</v>
+        <v>1569886.148407266</v>
       </c>
       <c r="AE7" t="n">
-        <v>2064437.925659668</v>
+        <v>2147987.486739671</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.439587530623225e-06</v>
+        <v>2.663613836440712e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.55625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1867410.867491535</v>
+        <v>1942986.575724608</v>
       </c>
     </row>
     <row r="8">
@@ -4238,28 +4238,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1423.30949112033</v>
+        <v>1484.2022428427</v>
       </c>
       <c r="AB8" t="n">
-        <v>1947.434837733947</v>
+        <v>2030.750987039104</v>
       </c>
       <c r="AC8" t="n">
-        <v>1761.57439006258</v>
+        <v>1836.938963013002</v>
       </c>
       <c r="AD8" t="n">
-        <v>1423309.49112033</v>
+        <v>1484202.2428427</v>
       </c>
       <c r="AE8" t="n">
-        <v>1947434.837733947</v>
+        <v>2030750.987039104</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.469639722689337e-06</v>
+        <v>2.719218259860532e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.33958333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1761574.39006258</v>
+        <v>1836938.963013002</v>
       </c>
     </row>
     <row r="9">
@@ -4344,28 +4344,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1354.273840394058</v>
+        <v>1415.166592116428</v>
       </c>
       <c r="AB9" t="n">
-        <v>1852.977214772303</v>
+        <v>1936.293364077459</v>
       </c>
       <c r="AC9" t="n">
-        <v>1676.131670064289</v>
+        <v>1751.496243014711</v>
       </c>
       <c r="AD9" t="n">
-        <v>1354273.840394058</v>
+        <v>1415166.592116428</v>
       </c>
       <c r="AE9" t="n">
-        <v>1852977.214772303</v>
+        <v>1936293.364077459</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.493418884372716e-06</v>
+        <v>2.763215934702429e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.17604166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1676131.670064288</v>
+        <v>1751496.243014711</v>
       </c>
     </row>
     <row r="10">
@@ -4450,28 +4450,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1322.254199919153</v>
+        <v>1383.146951641524</v>
       </c>
       <c r="AB10" t="n">
-        <v>1809.166530067698</v>
+        <v>1892.482679372854</v>
       </c>
       <c r="AC10" t="n">
-        <v>1636.502215619208</v>
+        <v>1711.866788569631</v>
       </c>
       <c r="AD10" t="n">
-        <v>1322254.199919153</v>
+        <v>1383146.951641524</v>
       </c>
       <c r="AE10" t="n">
-        <v>1809166.530067698</v>
+        <v>1892482.679372854</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.502609603305556e-06</v>
+        <v>2.780221170991015e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.11354166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1636502.215619208</v>
+        <v>1711866.788569631</v>
       </c>
     </row>
     <row r="11">
@@ -4556,28 +4556,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1320.205517091949</v>
+        <v>1381.09826881432</v>
       </c>
       <c r="AB11" t="n">
-        <v>1806.363431842009</v>
+        <v>1889.679581147166</v>
       </c>
       <c r="AC11" t="n">
-        <v>1633.966641154007</v>
+        <v>1709.331214104429</v>
       </c>
       <c r="AD11" t="n">
-        <v>1320205.517091949</v>
+        <v>1381098.26881432</v>
       </c>
       <c r="AE11" t="n">
-        <v>1806363.431842009</v>
+        <v>1889679.581147166</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.505527291855663e-06</v>
+        <v>2.785619658701677e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.09375</v>
       </c>
       <c r="AH11" t="n">
-        <v>1633966.641154007</v>
+        <v>1709331.214104429</v>
       </c>
     </row>
     <row r="12">
@@ -4662,28 +4662,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1326.307711917821</v>
+        <v>1387.200463640191</v>
       </c>
       <c r="AB12" t="n">
-        <v>1814.712724012603</v>
+        <v>1898.028873317759</v>
       </c>
       <c r="AC12" t="n">
-        <v>1641.519088598144</v>
+        <v>1716.883661548567</v>
       </c>
       <c r="AD12" t="n">
-        <v>1326307.711917821</v>
+        <v>1387200.463640191</v>
       </c>
       <c r="AE12" t="n">
-        <v>1814712.724012603</v>
+        <v>1898028.873317759</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.505527291855663e-06</v>
+        <v>2.785619658701677e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.09375</v>
       </c>
       <c r="AH12" t="n">
-        <v>1641519.088598144</v>
+        <v>1716883.661548567</v>
       </c>
     </row>
   </sheetData>
@@ -4959,28 +4959,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4834.184009143037</v>
+        <v>4963.414250402334</v>
       </c>
       <c r="AB2" t="n">
-        <v>6614.343830456583</v>
+        <v>6791.162347783436</v>
       </c>
       <c r="AC2" t="n">
-        <v>5983.080138567427</v>
+        <v>6143.023344766946</v>
       </c>
       <c r="AD2" t="n">
-        <v>4834184.009143037</v>
+        <v>4963414.250402334</v>
       </c>
       <c r="AE2" t="n">
-        <v>6614343.830456583</v>
+        <v>6791162.347783435</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.399382023304888e-07</v>
+        <v>1.410436410079513e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.246875</v>
       </c>
       <c r="AH2" t="n">
-        <v>5983080.138567427</v>
+        <v>6143023.344766947</v>
       </c>
     </row>
     <row r="3">
@@ -5065,28 +5065,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2078.196636931721</v>
+        <v>2148.778999236575</v>
       </c>
       <c r="AB3" t="n">
-        <v>2843.4803222149</v>
+        <v>2940.05422419446</v>
       </c>
       <c r="AC3" t="n">
-        <v>2572.102551112407</v>
+        <v>2659.459575429361</v>
       </c>
       <c r="AD3" t="n">
-        <v>2078196.636931721</v>
+        <v>2148778.999236575</v>
       </c>
       <c r="AE3" t="n">
-        <v>2843480.3222149</v>
+        <v>2940054.224194461</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.196306369543909e-06</v>
+        <v>2.280344569182194e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.13958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2572102.551112407</v>
+        <v>2659459.575429361</v>
       </c>
     </row>
     <row r="4">
@@ -5171,28 +5171,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1635.004746137045</v>
+        <v>1705.587018933349</v>
       </c>
       <c r="AB4" t="n">
-        <v>2237.085624983333</v>
+        <v>2333.659404493344</v>
       </c>
       <c r="AC4" t="n">
-        <v>2023.581312704317</v>
+        <v>2110.938226240044</v>
       </c>
       <c r="AD4" t="n">
-        <v>1635004.746137046</v>
+        <v>1705587.018933349</v>
       </c>
       <c r="AE4" t="n">
-        <v>2237085.624983333</v>
+        <v>2333659.404493344</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.36140781628051e-06</v>
+        <v>2.595053407164447e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>2023581.312704317</v>
+        <v>2110938.226240044</v>
       </c>
     </row>
     <row r="5">
@@ -5277,28 +5277,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1432.336261218892</v>
+        <v>1502.833193160623</v>
       </c>
       <c r="AB5" t="n">
-        <v>1959.785662815791</v>
+        <v>2056.242675203605</v>
       </c>
       <c r="AC5" t="n">
-        <v>1772.746469733105</v>
+        <v>1859.997760236893</v>
       </c>
       <c r="AD5" t="n">
-        <v>1432336.261218892</v>
+        <v>1502833.193160623</v>
       </c>
       <c r="AE5" t="n">
-        <v>1959785.662815791</v>
+        <v>2056242.675203606</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.448486001625134e-06</v>
+        <v>2.761037867416513e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.853125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1772746.469733105</v>
+        <v>1859997.760236893</v>
       </c>
     </row>
     <row r="6">
@@ -5383,28 +5383,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1308.962501596085</v>
+        <v>1367.69581091365</v>
       </c>
       <c r="AB6" t="n">
-        <v>1790.98024203373</v>
+        <v>1871.341746972758</v>
       </c>
       <c r="AC6" t="n">
-        <v>1620.051601390588</v>
+        <v>1692.743517086315</v>
       </c>
       <c r="AD6" t="n">
-        <v>1308962.501596085</v>
+        <v>1367695.81091365</v>
       </c>
       <c r="AE6" t="n">
-        <v>1790980.24203373</v>
+        <v>1871341.746972758</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.502513714542596e-06</v>
+        <v>2.864023026463722e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.4625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1620051.601390588</v>
+        <v>1692743.517086315</v>
       </c>
     </row>
     <row r="7">
@@ -5489,28 +5489,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1220.249130626327</v>
+        <v>1278.982439943892</v>
       </c>
       <c r="AB7" t="n">
-        <v>1669.598694115199</v>
+        <v>1749.960199054227</v>
       </c>
       <c r="AC7" t="n">
-        <v>1510.254538045328</v>
+        <v>1582.946453741056</v>
       </c>
       <c r="AD7" t="n">
-        <v>1220249.130626327</v>
+        <v>1278982.439943892</v>
       </c>
       <c r="AE7" t="n">
-        <v>1669598.694115199</v>
+        <v>1749960.199054227</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.536620594764234e-06</v>
+        <v>2.929036003962798e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.23020833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1510254.538045328</v>
+        <v>1582946.453741056</v>
       </c>
     </row>
     <row r="8">
@@ -5595,28 +5595,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1206.692420564488</v>
+        <v>1265.425729882053</v>
       </c>
       <c r="AB8" t="n">
-        <v>1651.049805328754</v>
+        <v>1731.411310267781</v>
       </c>
       <c r="AC8" t="n">
-        <v>1493.475929171133</v>
+        <v>1566.16784486686</v>
       </c>
       <c r="AD8" t="n">
-        <v>1206692.420564488</v>
+        <v>1265425.729882053</v>
       </c>
       <c r="AE8" t="n">
-        <v>1651049.805328754</v>
+        <v>1731411.310267781</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.54356270312793e-06</v>
+        <v>2.942268733896238e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.184375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1493475.929171133</v>
+        <v>1566167.84486686</v>
       </c>
     </row>
     <row r="9">
@@ -5701,28 +5701,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1213.424190987734</v>
+        <v>1272.1575003053</v>
       </c>
       <c r="AB9" t="n">
-        <v>1660.260510606591</v>
+        <v>1740.622015545618</v>
       </c>
       <c r="AC9" t="n">
-        <v>1501.807577664559</v>
+        <v>1574.499493360286</v>
       </c>
       <c r="AD9" t="n">
-        <v>1213424.190987734</v>
+        <v>1272157.5003053</v>
       </c>
       <c r="AE9" t="n">
-        <v>1660260.51060659</v>
+        <v>1740622.015545618</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.543411787728719e-06</v>
+        <v>2.941981065854207e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.18541666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1501807.577664559</v>
+        <v>1574499.493360286</v>
       </c>
     </row>
   </sheetData>
@@ -5998,28 +5998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1500.159414040396</v>
+        <v>1573.232919278139</v>
       </c>
       <c r="AB2" t="n">
-        <v>2052.5842926525</v>
+        <v>2152.56668629431</v>
       </c>
       <c r="AC2" t="n">
-        <v>1856.688528581893</v>
+        <v>1947.128742900699</v>
       </c>
       <c r="AD2" t="n">
-        <v>1500159.414040396</v>
+        <v>1573232.919278139</v>
       </c>
       <c r="AE2" t="n">
-        <v>2052584.2926525</v>
+        <v>2152566.68629431</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.305433703214847e-06</v>
+        <v>2.780232152016999e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.43645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1856688.528581893</v>
+        <v>1947128.742900699</v>
       </c>
     </row>
     <row r="3">
@@ -6104,28 +6104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>960.886713888135</v>
+        <v>1023.582027980709</v>
       </c>
       <c r="AB3" t="n">
-        <v>1314.727593271733</v>
+        <v>1400.510087935242</v>
       </c>
       <c r="AC3" t="n">
-        <v>1189.251837001645</v>
+        <v>1266.847370770955</v>
       </c>
       <c r="AD3" t="n">
-        <v>960886.7138881349</v>
+        <v>1023582.027980709</v>
       </c>
       <c r="AE3" t="n">
-        <v>1314727.593271733</v>
+        <v>1400510.087935242</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.606363789340354e-06</v>
+        <v>3.421134481177781e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.92083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1189251.837001645</v>
+        <v>1266847.370770955</v>
       </c>
     </row>
     <row r="4">
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>949.8018541522544</v>
+        <v>1012.497168244828</v>
       </c>
       <c r="AB4" t="n">
-        <v>1299.560799151604</v>
+        <v>1385.343293815112</v>
       </c>
       <c r="AC4" t="n">
-        <v>1175.532540425612</v>
+        <v>1253.128074194922</v>
       </c>
       <c r="AD4" t="n">
-        <v>949801.8541522543</v>
+        <v>1012497.168244828</v>
       </c>
       <c r="AE4" t="n">
-        <v>1299560.799151604</v>
+        <v>1385343.293815112</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.618993759379198e-06</v>
+        <v>3.448033012060298e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.834375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1175532.540425612</v>
+        <v>1253128.074194922</v>
       </c>
     </row>
   </sheetData>
@@ -6507,28 +6507,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2309.473325437879</v>
+        <v>2397.247693807482</v>
       </c>
       <c r="AB2" t="n">
-        <v>3159.923290636597</v>
+        <v>3280.020053771731</v>
       </c>
       <c r="AC2" t="n">
-        <v>2858.344646758314</v>
+        <v>2966.979543376692</v>
       </c>
       <c r="AD2" t="n">
-        <v>2309473.325437879</v>
+        <v>2397247.693807482</v>
       </c>
       <c r="AE2" t="n">
-        <v>3159923.290636597</v>
+        <v>3280020.053771731</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.075359548586465e-06</v>
+        <v>2.183351669474777e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.60520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2858344.646758314</v>
+        <v>2966979.543376692</v>
       </c>
     </row>
     <row r="3">
@@ -6613,28 +6613,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1303.830201938606</v>
+        <v>1369.660978215808</v>
       </c>
       <c r="AB3" t="n">
-        <v>1783.958003221287</v>
+        <v>1874.030575572632</v>
       </c>
       <c r="AC3" t="n">
-        <v>1613.69955519463</v>
+        <v>1695.175727658412</v>
       </c>
       <c r="AD3" t="n">
-        <v>1303830.201938606</v>
+        <v>1369660.978215808</v>
       </c>
       <c r="AE3" t="n">
-        <v>1783958.003221287</v>
+        <v>1874030.575572632</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.455722678805587e-06</v>
+        <v>2.955620327396867e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.528125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1613699.55519463</v>
+        <v>1695175.727658412</v>
       </c>
     </row>
     <row r="4">
@@ -6719,28 +6719,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1064.608358971733</v>
+        <v>1130.353794394363</v>
       </c>
       <c r="AB4" t="n">
-        <v>1456.644123951144</v>
+        <v>1546.599929180292</v>
       </c>
       <c r="AC4" t="n">
-        <v>1317.624053174114</v>
+        <v>1398.994602605958</v>
       </c>
       <c r="AD4" t="n">
-        <v>1064608.358971733</v>
+        <v>1130353.794394363</v>
       </c>
       <c r="AE4" t="n">
-        <v>1456644.123951144</v>
+        <v>1546599.929180292</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.583315901649105e-06</v>
+        <v>3.214678682786234e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.59895833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1317624.053174114</v>
+        <v>1398994.602605958</v>
       </c>
     </row>
     <row r="5">
@@ -6825,28 +6825,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1034.602789197809</v>
+        <v>1089.37651808279</v>
       </c>
       <c r="AB5" t="n">
-        <v>1415.589179634149</v>
+        <v>1490.533011940954</v>
       </c>
       <c r="AC5" t="n">
-        <v>1280.487335121757</v>
+        <v>1348.27863325753</v>
       </c>
       <c r="AD5" t="n">
-        <v>1034602.789197809</v>
+        <v>1089376.51808279</v>
       </c>
       <c r="AE5" t="n">
-        <v>1415589.179634149</v>
+        <v>1490533.011940954</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.601359387707784e-06</v>
+        <v>3.251313197689781e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.48020833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1280487.335121757</v>
+        <v>1348278.63325753</v>
       </c>
     </row>
     <row r="6">
@@ -6931,28 +6931,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1041.058682097364</v>
+        <v>1095.832410982345</v>
       </c>
       <c r="AB6" t="n">
-        <v>1424.422417113213</v>
+        <v>1499.366249420019</v>
       </c>
       <c r="AC6" t="n">
-        <v>1288.477540813346</v>
+        <v>1356.268838949119</v>
       </c>
       <c r="AD6" t="n">
-        <v>1041058.682097364</v>
+        <v>1095832.410982345</v>
       </c>
       <c r="AE6" t="n">
-        <v>1424422.417113213</v>
+        <v>1499366.249420019</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.601359387707784e-06</v>
+        <v>3.251313197689781e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.47916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1288477.540813346</v>
+        <v>1356268.838949119</v>
       </c>
     </row>
   </sheetData>
@@ -7228,28 +7228,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1033.0917035544</v>
+        <v>1093.28538199034</v>
       </c>
       <c r="AB2" t="n">
-        <v>1413.521645592443</v>
+        <v>1495.881291986169</v>
       </c>
       <c r="AC2" t="n">
-        <v>1278.617123627189</v>
+        <v>1353.116480961588</v>
       </c>
       <c r="AD2" t="n">
-        <v>1033091.7035544</v>
+        <v>1093285.38199034</v>
       </c>
       <c r="AE2" t="n">
-        <v>1413521.645592443</v>
+        <v>1495881.291986169</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.508313062108971e-06</v>
+        <v>3.35871857951414e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.07916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1278617.123627189</v>
+        <v>1353116.480961588</v>
       </c>
     </row>
     <row r="3">
@@ -7334,28 +7334,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>896.4428868089029</v>
+        <v>956.5512243902717</v>
       </c>
       <c r="AB3" t="n">
-        <v>1226.552706000931</v>
+        <v>1308.795585272459</v>
       </c>
       <c r="AC3" t="n">
-        <v>1109.492237217736</v>
+        <v>1183.885971520196</v>
       </c>
       <c r="AD3" t="n">
-        <v>896442.886808903</v>
+        <v>956551.2243902717</v>
       </c>
       <c r="AE3" t="n">
-        <v>1226552.706000931</v>
+        <v>1308795.585272459</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.610103206142762e-06</v>
+        <v>3.585385348215117e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.31458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1109492.237217736</v>
+        <v>1183885.971520196</v>
       </c>
     </row>
   </sheetData>
@@ -7631,28 +7631,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5459.659220343628</v>
+        <v>5601.930051219568</v>
       </c>
       <c r="AB2" t="n">
-        <v>7470.146608440114</v>
+        <v>7664.807835790665</v>
       </c>
       <c r="AC2" t="n">
-        <v>6757.20630054692</v>
+        <v>6933.289333567876</v>
       </c>
       <c r="AD2" t="n">
-        <v>5459659.220343629</v>
+        <v>5601930.051219568</v>
       </c>
       <c r="AE2" t="n">
-        <v>7470146.608440113</v>
+        <v>7664807.835790665</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.933589407681284e-07</v>
+        <v>1.310977894519185e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.46875</v>
       </c>
       <c r="AH2" t="n">
-        <v>6757206.30054692</v>
+        <v>6933289.333567876</v>
       </c>
     </row>
     <row r="3">
@@ -7737,28 +7737,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2219.010309110505</v>
+        <v>2301.980329203055</v>
       </c>
       <c r="AB3" t="n">
-        <v>3036.147800750864</v>
+        <v>3149.671042620448</v>
       </c>
       <c r="AC3" t="n">
-        <v>2746.382115907288</v>
+        <v>2849.070858903705</v>
       </c>
       <c r="AD3" t="n">
-        <v>2219010.309110505</v>
+        <v>2301980.329203055</v>
       </c>
       <c r="AE3" t="n">
-        <v>3036147.800750864</v>
+        <v>3149671.042620447</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.158938402073388e-06</v>
+        <v>2.191278624812157e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.44166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2746382.115907288</v>
+        <v>2849070.858903705</v>
       </c>
     </row>
     <row r="4">
@@ -7843,28 +7843,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1729.644447580293</v>
+        <v>1800.907829545843</v>
       </c>
       <c r="AB4" t="n">
-        <v>2366.575839706938</v>
+        <v>2464.081542830731</v>
       </c>
       <c r="AC4" t="n">
-        <v>2140.71316307536</v>
+        <v>2228.913058743132</v>
       </c>
       <c r="AD4" t="n">
-        <v>1729644.447580293</v>
+        <v>1800907.829545843</v>
       </c>
       <c r="AE4" t="n">
-        <v>2366575.839706939</v>
+        <v>2464081.542830731</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.329735621736288e-06</v>
+        <v>2.51421580245256e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.71666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2140713.16307536</v>
+        <v>2228913.058743132</v>
       </c>
     </row>
     <row r="5">
@@ -7949,28 +7949,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1515.68793230547</v>
+        <v>1586.86597341645</v>
       </c>
       <c r="AB5" t="n">
-        <v>2073.831096412651</v>
+        <v>2171.220032414246</v>
       </c>
       <c r="AC5" t="n">
-        <v>1875.907567211251</v>
+        <v>1964.001839847084</v>
       </c>
       <c r="AD5" t="n">
-        <v>1515687.93230547</v>
+        <v>1586865.97341645</v>
       </c>
       <c r="AE5" t="n">
-        <v>2073831.096412651</v>
+        <v>2171220.032414246</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.418125426307893e-06</v>
+        <v>2.681340033613225e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.98541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1875907.567211251</v>
+        <v>1964001.839847084</v>
       </c>
     </row>
     <row r="6">
@@ -8055,28 +8055,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1384.803529184714</v>
+        <v>1455.981570295693</v>
       </c>
       <c r="AB6" t="n">
-        <v>1894.74928185049</v>
+        <v>1992.138217852085</v>
       </c>
       <c r="AC6" t="n">
-        <v>1713.917069687998</v>
+        <v>1802.011342323831</v>
       </c>
       <c r="AD6" t="n">
-        <v>1384803.529184714</v>
+        <v>1455981.570295693</v>
       </c>
       <c r="AE6" t="n">
-        <v>1894749.28185049</v>
+        <v>1992138.217852085</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.474359887422823e-06</v>
+        <v>2.787666109613918e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.56666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1713917.069687998</v>
+        <v>1802011.342323831</v>
       </c>
     </row>
     <row r="7">
@@ -8161,28 +8161,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1284.149335120735</v>
+        <v>1343.450235412673</v>
       </c>
       <c r="AB7" t="n">
-        <v>1757.02977298251</v>
+        <v>1838.167880933021</v>
       </c>
       <c r="AC7" t="n">
-        <v>1589.341317455833</v>
+        <v>1662.735718261597</v>
       </c>
       <c r="AD7" t="n">
-        <v>1284149.335120735</v>
+        <v>1343450.235412673</v>
       </c>
       <c r="AE7" t="n">
-        <v>1757029.77298251</v>
+        <v>1838167.880933021</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.514292337203904e-06</v>
+        <v>2.863168934859091e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.28854166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1589341.317455833</v>
+        <v>1662735.718261597</v>
       </c>
     </row>
     <row r="8">
@@ -8267,28 +8267,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1234.89416046289</v>
+        <v>1294.195060754828</v>
       </c>
       <c r="AB8" t="n">
-        <v>1689.636670030703</v>
+        <v>1770.774777981214</v>
       </c>
       <c r="AC8" t="n">
-        <v>1528.380117662932</v>
+        <v>1601.774518468696</v>
       </c>
       <c r="AD8" t="n">
-        <v>1234894.16046289</v>
+        <v>1294195.060754828</v>
       </c>
       <c r="AE8" t="n">
-        <v>1689636.670030703</v>
+        <v>1770774.777981214</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.532389065381847e-06</v>
+        <v>2.897385571018888e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.16666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1528380.117662932</v>
+        <v>1601774.518468696</v>
       </c>
     </row>
     <row r="9">
@@ -8373,28 +8373,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1233.756797724134</v>
+        <v>1293.057698016073</v>
       </c>
       <c r="AB9" t="n">
-        <v>1688.080480154635</v>
+        <v>1769.218588105146</v>
       </c>
       <c r="AC9" t="n">
-        <v>1526.97244836451</v>
+        <v>1600.366849170274</v>
       </c>
       <c r="AD9" t="n">
-        <v>1233756.797724134</v>
+        <v>1293057.698016073</v>
       </c>
       <c r="AE9" t="n">
-        <v>1688080.480154635</v>
+        <v>1769218.588105146</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.532688184855862e-06</v>
+        <v>2.897951135252934e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.16458333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1526972.44836451</v>
+        <v>1600366.849170274</v>
       </c>
     </row>
     <row r="10">
@@ -8479,28 +8479,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1237.973522348951</v>
+        <v>1297.27442264089</v>
       </c>
       <c r="AB10" t="n">
-        <v>1693.849988815071</v>
+        <v>1774.988096765582</v>
       </c>
       <c r="AC10" t="n">
-        <v>1532.19132321595</v>
+        <v>1605.585724021714</v>
       </c>
       <c r="AD10" t="n">
-        <v>1237973.522348951</v>
+        <v>1297274.42264089</v>
       </c>
       <c r="AE10" t="n">
-        <v>1693849.988815071</v>
+        <v>1774988.096765582</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.534333341962949e-06</v>
+        <v>2.901061738540189e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.153125</v>
       </c>
       <c r="AH10" t="n">
-        <v>1532191.32321595</v>
+        <v>1605585.724021714</v>
       </c>
     </row>
   </sheetData>
@@ -8776,28 +8776,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>879.1567124658045</v>
+        <v>937.9542463745971</v>
       </c>
       <c r="AB2" t="n">
-        <v>1202.900999652514</v>
+        <v>1283.350379510647</v>
       </c>
       <c r="AC2" t="n">
-        <v>1088.097816527834</v>
+        <v>1160.86922048372</v>
       </c>
       <c r="AD2" t="n">
-        <v>879156.7124658045</v>
+        <v>937954.2463745971</v>
       </c>
       <c r="AE2" t="n">
-        <v>1202900.999652514</v>
+        <v>1283350.379510647</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.571144078775318e-06</v>
+        <v>3.601952671606988e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.86666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1088097.816527834</v>
+        <v>1160869.220483721</v>
       </c>
     </row>
     <row r="3">
@@ -8882,28 +8882,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>871.6817130139426</v>
+        <v>930.4792469227353</v>
       </c>
       <c r="AB3" t="n">
-        <v>1192.673375628775</v>
+        <v>1273.122755486908</v>
       </c>
       <c r="AC3" t="n">
-        <v>1078.84630258636</v>
+        <v>1151.617706542247</v>
       </c>
       <c r="AD3" t="n">
-        <v>871681.7130139426</v>
+        <v>930479.2469227354</v>
       </c>
       <c r="AE3" t="n">
-        <v>1192673.375628775</v>
+        <v>1273122.755486908</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.586536923475098e-06</v>
+        <v>3.637241795525671e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.75208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1078846.30258636</v>
+        <v>1151617.706542247</v>
       </c>
     </row>
   </sheetData>
@@ -9179,28 +9179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3364.759077911612</v>
+        <v>3467.231442565504</v>
       </c>
       <c r="AB2" t="n">
-        <v>4603.81181309289</v>
+        <v>4744.019023174022</v>
       </c>
       <c r="AC2" t="n">
-        <v>4164.430475141591</v>
+        <v>4291.256505874631</v>
       </c>
       <c r="AD2" t="n">
-        <v>3364759.077911612</v>
+        <v>3467231.442565504</v>
       </c>
       <c r="AE2" t="n">
-        <v>4603811.813092889</v>
+        <v>4744019.023174021</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.937543684227315e-07</v>
+        <v>1.751746210482008e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.12395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4164430.475141591</v>
+        <v>4291256.505874631</v>
       </c>
     </row>
     <row r="3">
@@ -9285,28 +9285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1678.449565606416</v>
+        <v>1746.736058260337</v>
       </c>
       <c r="AB3" t="n">
-        <v>2296.528743631489</v>
+        <v>2389.961335468023</v>
       </c>
       <c r="AC3" t="n">
-        <v>2077.351263537635</v>
+        <v>2161.866779942756</v>
       </c>
       <c r="AD3" t="n">
-        <v>1678449.565606416</v>
+        <v>1746736.058260337</v>
       </c>
       <c r="AE3" t="n">
-        <v>2296528.743631489</v>
+        <v>2389961.335468023</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.31606419177627e-06</v>
+        <v>2.579467627960981e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.30729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2077351.263537635</v>
+        <v>2161866.779942756</v>
       </c>
     </row>
     <row r="4">
@@ -9391,28 +9391,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1352.531590912192</v>
+        <v>1409.508133754028</v>
       </c>
       <c r="AB4" t="n">
-        <v>1850.593392168591</v>
+        <v>1928.551211712458</v>
       </c>
       <c r="AC4" t="n">
-        <v>1673.975356144159</v>
+        <v>1744.492990805246</v>
       </c>
       <c r="AD4" t="n">
-        <v>1352531.590912192</v>
+        <v>1409508.133754028</v>
       </c>
       <c r="AE4" t="n">
-        <v>1850593.392168591</v>
+        <v>1928551.211712458</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.466111680559836e-06</v>
+        <v>2.87355863233035e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1673975.356144159</v>
+        <v>1744492.990805246</v>
       </c>
     </row>
     <row r="5">
@@ -9497,28 +9497,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1177.553895629683</v>
+        <v>1234.445097616947</v>
       </c>
       <c r="AB5" t="n">
-        <v>1611.18119001196</v>
+        <v>1689.022242433629</v>
       </c>
       <c r="AC5" t="n">
-        <v>1457.41231854422</v>
+        <v>1527.824330173369</v>
       </c>
       <c r="AD5" t="n">
-        <v>1177553.895629683</v>
+        <v>1234445.097616947</v>
       </c>
       <c r="AE5" t="n">
-        <v>1611181.19001196</v>
+        <v>1689022.242433629</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.544944920780839e-06</v>
+        <v>3.028070693693325e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.484375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1457412.31854422</v>
+        <v>1527824.330173369</v>
       </c>
     </row>
     <row r="6">
@@ -9603,28 +9603,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1119.809940521488</v>
+        <v>1176.701142508753</v>
       </c>
       <c r="AB6" t="n">
-        <v>1532.173363149421</v>
+        <v>1610.01441557109</v>
       </c>
       <c r="AC6" t="n">
-        <v>1385.944887789261</v>
+        <v>1456.356899418409</v>
       </c>
       <c r="AD6" t="n">
-        <v>1119809.940521488</v>
+        <v>1176701.142508753</v>
       </c>
       <c r="AE6" t="n">
-        <v>1532173.363149421</v>
+        <v>1610014.415571091</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.572000115649585e-06</v>
+        <v>3.081098501735056e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.303125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1385944.887789261</v>
+        <v>1456356.899418409</v>
       </c>
     </row>
     <row r="7">
@@ -9709,28 +9709,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1123.433177049875</v>
+        <v>1180.32437903714</v>
       </c>
       <c r="AB7" t="n">
-        <v>1537.130835213475</v>
+        <v>1614.971887635144</v>
       </c>
       <c r="AC7" t="n">
-        <v>1390.429225677377</v>
+        <v>1460.841237306525</v>
       </c>
       <c r="AD7" t="n">
-        <v>1123433.177049875</v>
+        <v>1180324.37903714</v>
       </c>
       <c r="AE7" t="n">
-        <v>1537130.835213475</v>
+        <v>1614971.887635144</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.57355501190641e-06</v>
+        <v>3.084146076909868e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.29270833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1390429.225677377</v>
+        <v>1460841.237306525</v>
       </c>
     </row>
   </sheetData>
@@ -10006,28 +10006,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4279.46166214902</v>
+        <v>4395.835183463046</v>
       </c>
       <c r="AB2" t="n">
-        <v>5855.348242676569</v>
+        <v>6014.575628575845</v>
       </c>
       <c r="AC2" t="n">
-        <v>5296.522024428167</v>
+        <v>5440.552972094251</v>
       </c>
       <c r="AD2" t="n">
-        <v>4279461.66214902</v>
+        <v>4395835.183463045</v>
       </c>
       <c r="AE2" t="n">
-        <v>5855348.242676569</v>
+        <v>6014575.628575846</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.891670693305835e-07</v>
+        <v>1.51733395581336e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.11041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>5296522.024428167</v>
+        <v>5440552.972094252</v>
       </c>
     </row>
     <row r="3">
@@ -10112,28 +10112,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1935.049454154427</v>
+        <v>2016.485254161887</v>
       </c>
       <c r="AB3" t="n">
-        <v>2647.620031531008</v>
+        <v>2759.044085795151</v>
       </c>
       <c r="AC3" t="n">
-        <v>2394.93489167974</v>
+        <v>2495.724790589557</v>
       </c>
       <c r="AD3" t="n">
-        <v>1935049.454154427</v>
+        <v>2016485.254161887</v>
       </c>
       <c r="AE3" t="n">
-        <v>2647620.031531008</v>
+        <v>2759044.085795151</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.234025726173306e-06</v>
+        <v>2.372665066040196e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.86041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2394934.891679741</v>
+        <v>2495724.790589557</v>
       </c>
     </row>
     <row r="4">
@@ -10218,28 +10218,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1539.494475149537</v>
+        <v>1609.199146544971</v>
       </c>
       <c r="AB4" t="n">
-        <v>2106.404258602448</v>
+        <v>2201.777265158752</v>
       </c>
       <c r="AC4" t="n">
-        <v>1905.371992518375</v>
+        <v>1991.6427331858</v>
       </c>
       <c r="AD4" t="n">
-        <v>1539494.475149537</v>
+        <v>1609199.146544972</v>
       </c>
       <c r="AE4" t="n">
-        <v>2106404.258602448</v>
+        <v>2201777.265158752</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.395210814851251e-06</v>
+        <v>2.682576132690878e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.37395833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1905371.992518375</v>
+        <v>1991642.7331858</v>
       </c>
     </row>
     <row r="5">
@@ -10324,28 +10324,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1350.685853459019</v>
+        <v>1420.475776200475</v>
       </c>
       <c r="AB5" t="n">
-        <v>1848.067972756971</v>
+        <v>1943.557623965923</v>
       </c>
       <c r="AC5" t="n">
-        <v>1671.690959216735</v>
+        <v>1758.067212134872</v>
       </c>
       <c r="AD5" t="n">
-        <v>1350685.853459019</v>
+        <v>1420475.776200475</v>
       </c>
       <c r="AE5" t="n">
-        <v>1848067.972756971</v>
+        <v>1943557.623965923</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.478697987436804e-06</v>
+        <v>2.843097176664956e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.73229166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1671690.959216735</v>
+        <v>1758067.212134872</v>
       </c>
     </row>
     <row r="6">
@@ -10430,28 +10430,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1225.524178076118</v>
+        <v>1283.66831306012</v>
       </c>
       <c r="AB6" t="n">
-        <v>1676.816246754673</v>
+        <v>1756.371617377982</v>
       </c>
       <c r="AC6" t="n">
-        <v>1516.78325759079</v>
+        <v>1588.745975298474</v>
       </c>
       <c r="AD6" t="n">
-        <v>1225524.178076118</v>
+        <v>1283668.31306012</v>
       </c>
       <c r="AE6" t="n">
-        <v>1676816.246754673</v>
+        <v>1756371.617377982</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.531258342440482e-06</v>
+        <v>2.944155133181483e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.36354166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1516783.25759079</v>
+        <v>1588745.975298474</v>
       </c>
     </row>
     <row r="7">
@@ -10536,28 +10536,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1176.424653282913</v>
+        <v>1234.568788266916</v>
       </c>
       <c r="AB7" t="n">
-        <v>1609.636110814454</v>
+        <v>1689.191481437763</v>
       </c>
       <c r="AC7" t="n">
-        <v>1456.014699536792</v>
+        <v>1527.977417244476</v>
       </c>
       <c r="AD7" t="n">
-        <v>1176424.653282913</v>
+        <v>1234568.788266916</v>
       </c>
       <c r="AE7" t="n">
-        <v>1609636.110814454</v>
+        <v>1689191.481437763</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.552891879862285e-06</v>
+        <v>2.985750002240459e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.21875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1456014.699536792</v>
+        <v>1527977.417244476</v>
       </c>
     </row>
     <row r="8">
@@ -10642,28 +10642,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1181.491883591284</v>
+        <v>1239.636018575286</v>
       </c>
       <c r="AB8" t="n">
-        <v>1616.56931887279</v>
+        <v>1696.124689496099</v>
       </c>
       <c r="AC8" t="n">
-        <v>1462.286211948859</v>
+        <v>1534.248929656544</v>
       </c>
       <c r="AD8" t="n">
-        <v>1181491.883591284</v>
+        <v>1239636.018575286</v>
       </c>
       <c r="AE8" t="n">
-        <v>1616569.31887279</v>
+        <v>1696124.689496099</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.553653624137701e-06</v>
+        <v>2.987214610305916e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.21458333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1462286.211948859</v>
+        <v>1534248.929656544</v>
       </c>
     </row>
     <row r="9">
@@ -10748,28 +10748,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1186.979476521624</v>
+        <v>1245.123611505626</v>
       </c>
       <c r="AB9" t="n">
-        <v>1624.077685615595</v>
+        <v>1703.633056238904</v>
       </c>
       <c r="AC9" t="n">
-        <v>1469.077990707789</v>
+        <v>1541.040708415474</v>
       </c>
       <c r="AD9" t="n">
-        <v>1186979.476521624</v>
+        <v>1245123.611505626</v>
       </c>
       <c r="AE9" t="n">
-        <v>1624077.685615595</v>
+        <v>1703633.056238904</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.553348926427535e-06</v>
+        <v>2.986628767079734e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.215625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1469077.99070779</v>
+        <v>1541040.708415474</v>
       </c>
     </row>
   </sheetData>
@@ -11045,28 +11045,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7054.426704890514</v>
+        <v>7211.463233401726</v>
       </c>
       <c r="AB2" t="n">
-        <v>9652.177836973215</v>
+        <v>9867.042143244951</v>
       </c>
       <c r="AC2" t="n">
-        <v>8730.987531128803</v>
+        <v>8925.345489573907</v>
       </c>
       <c r="AD2" t="n">
-        <v>7054426.704890514</v>
+        <v>7211463.233401726</v>
       </c>
       <c r="AE2" t="n">
-        <v>9652177.836973215</v>
+        <v>9867042.143244952</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.04378101021158e-07</v>
+        <v>1.125910562284568e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.34479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>8730987.531128803</v>
+        <v>8925345.489573907</v>
       </c>
     </row>
     <row r="3">
@@ -11151,28 +11151,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2519.48909880094</v>
+        <v>2604.053835530507</v>
       </c>
       <c r="AB3" t="n">
-        <v>3447.276136993967</v>
+        <v>3562.981340520248</v>
       </c>
       <c r="AC3" t="n">
-        <v>3118.272940761578</v>
+        <v>3222.93540205658</v>
       </c>
       <c r="AD3" t="n">
-        <v>2519489.09880094</v>
+        <v>2604053.835530506</v>
       </c>
       <c r="AE3" t="n">
-        <v>3447276.136993967</v>
+        <v>3562981.340520248</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.09067454386227e-06</v>
+        <v>2.031843951451251e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.04375</v>
       </c>
       <c r="AH3" t="n">
-        <v>3118272.940761578</v>
+        <v>3222935.40205658</v>
       </c>
     </row>
     <row r="4">
@@ -11257,28 +11257,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1940.716572759016</v>
+        <v>2013.188454049212</v>
       </c>
       <c r="AB4" t="n">
-        <v>2655.374033221433</v>
+        <v>2754.533258436435</v>
       </c>
       <c r="AC4" t="n">
-        <v>2401.948862331642</v>
+        <v>2491.644470262969</v>
       </c>
       <c r="AD4" t="n">
-        <v>1940716.572759016</v>
+        <v>2013188.454049212</v>
       </c>
       <c r="AE4" t="n">
-        <v>2655374.033221433</v>
+        <v>2754533.258436434</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.267576455183061e-06</v>
+        <v>2.361398794864472e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.084375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2401948.862331642</v>
+        <v>2491644.470262969</v>
       </c>
     </row>
     <row r="5">
@@ -11363,28 +11363,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1691.029193724501</v>
+        <v>1763.415734160126</v>
       </c>
       <c r="AB5" t="n">
-        <v>2313.740745796677</v>
+        <v>2412.783203889479</v>
       </c>
       <c r="AC5" t="n">
-        <v>2092.920576373374</v>
+        <v>2182.510561272762</v>
       </c>
       <c r="AD5" t="n">
-        <v>1691029.193724501</v>
+        <v>1763415.734160126</v>
       </c>
       <c r="AE5" t="n">
-        <v>2313740.745796677</v>
+        <v>2412783.203889479</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.362865265271069e-06</v>
+        <v>2.538914620742914e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.23958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2092920.576373374</v>
+        <v>2182510.561272762</v>
       </c>
     </row>
     <row r="6">
@@ -11469,28 +11469,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1539.240359753</v>
+        <v>1611.712151534645</v>
       </c>
       <c r="AB6" t="n">
-        <v>2106.056566706127</v>
+        <v>2205.215669451578</v>
       </c>
       <c r="AC6" t="n">
-        <v>1905.05748384865</v>
+        <v>1994.75298099875</v>
       </c>
       <c r="AD6" t="n">
-        <v>1539240.359753</v>
+        <v>1611712.151534646</v>
       </c>
       <c r="AE6" t="n">
-        <v>2106056.566706127</v>
+        <v>2205215.669451579</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.421685518411814e-06</v>
+        <v>2.64849229103825e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.77395833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1905057.48384865</v>
+        <v>1994752.98099875</v>
       </c>
     </row>
     <row r="7">
@@ -11575,28 +11575,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1434.605547927028</v>
+        <v>1494.984573777855</v>
       </c>
       <c r="AB7" t="n">
-        <v>1962.890601003727</v>
+        <v>2045.503847907452</v>
       </c>
       <c r="AC7" t="n">
-        <v>1775.555076978192</v>
+        <v>1850.283831545846</v>
       </c>
       <c r="AD7" t="n">
-        <v>1434605.547927028</v>
+        <v>1494984.573777855</v>
       </c>
       <c r="AE7" t="n">
-        <v>1962890.601003727</v>
+        <v>2045503.847907452</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.463741999407447e-06</v>
+        <v>2.726840325299414e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.465625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1775555.076978192</v>
+        <v>1850283.831545846</v>
       </c>
     </row>
     <row r="8">
@@ -11681,28 +11681,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1353.244778255532</v>
+        <v>1413.623804106359</v>
       </c>
       <c r="AB8" t="n">
-        <v>1851.569206555354</v>
+        <v>1934.182453459079</v>
       </c>
       <c r="AC8" t="n">
-        <v>1674.858040175413</v>
+        <v>1749.586794743067</v>
       </c>
       <c r="AD8" t="n">
-        <v>1353244.778255532</v>
+        <v>1413623.804106359</v>
       </c>
       <c r="AE8" t="n">
-        <v>1851569.206555354</v>
+        <v>1934182.453459079</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.492710974079264e-06</v>
+        <v>2.780807327919867e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.26145833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1674858.040175413</v>
+        <v>1749586.794743067</v>
       </c>
     </row>
     <row r="9">
@@ -11787,28 +11787,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1300.462078416911</v>
+        <v>1360.841104267738</v>
       </c>
       <c r="AB9" t="n">
-        <v>1779.349588027781</v>
+        <v>1861.962834931507</v>
       </c>
       <c r="AC9" t="n">
-        <v>1609.530960679241</v>
+        <v>1684.259715246895</v>
       </c>
       <c r="AD9" t="n">
-        <v>1300462.078416911</v>
+        <v>1360841.104267738</v>
       </c>
       <c r="AE9" t="n">
-        <v>1779349.588027782</v>
+        <v>1861962.834931507</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.510357050021487e-06</v>
+        <v>2.813680629008467e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.14166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1609530.960679241</v>
+        <v>1684259.715246895</v>
       </c>
     </row>
     <row r="10">
@@ -11893,28 +11893,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1290.497518921714</v>
+        <v>1350.876544772541</v>
       </c>
       <c r="AB10" t="n">
-        <v>1765.715638121113</v>
+        <v>1848.328885024839</v>
       </c>
       <c r="AC10" t="n">
-        <v>1597.198215816297</v>
+        <v>1671.92697038395</v>
       </c>
       <c r="AD10" t="n">
-        <v>1290497.518921714</v>
+        <v>1350876.544772541</v>
       </c>
       <c r="AE10" t="n">
-        <v>1765715.638121113</v>
+        <v>1848328.885024839</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.513445113311377e-06</v>
+        <v>2.819433456698972e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.12083333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1597198.215816297</v>
+        <v>1671926.970383951</v>
       </c>
     </row>
     <row r="11">
@@ -11999,28 +11999,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1293.777652618036</v>
+        <v>1354.156678468863</v>
       </c>
       <c r="AB11" t="n">
-        <v>1770.203661753706</v>
+        <v>1852.816908657432</v>
       </c>
       <c r="AC11" t="n">
-        <v>1601.257908772376</v>
+        <v>1675.98666334003</v>
       </c>
       <c r="AD11" t="n">
-        <v>1293777.652618036</v>
+        <v>1354156.678468863</v>
       </c>
       <c r="AE11" t="n">
-        <v>1770203.661753706</v>
+        <v>1852816.908657432</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.514915619639895e-06</v>
+        <v>2.822172898456356e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.11145833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1601257.908772376</v>
+        <v>1675986.66334003</v>
       </c>
     </row>
   </sheetData>
@@ -12296,28 +12296,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2626.728460762472</v>
+        <v>2715.607077329324</v>
       </c>
       <c r="AB2" t="n">
-        <v>3594.005763096491</v>
+        <v>3715.613407331095</v>
       </c>
       <c r="AC2" t="n">
-        <v>3250.998897285196</v>
+        <v>3361.000478631445</v>
       </c>
       <c r="AD2" t="n">
-        <v>2626728.460762472</v>
+        <v>2715607.077329324</v>
       </c>
       <c r="AE2" t="n">
-        <v>3594005.763096491</v>
+        <v>3715613.407331095</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.011152464563706e-06</v>
+        <v>2.026852440683641e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.38958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3250998.897285196</v>
+        <v>3361000.478631445</v>
       </c>
     </row>
     <row r="3">
@@ -12402,28 +12402,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1425.37247747466</v>
+        <v>1492.095378409314</v>
       </c>
       <c r="AB3" t="n">
-        <v>1950.257506676477</v>
+        <v>2041.550723341911</v>
       </c>
       <c r="AC3" t="n">
-        <v>1764.127667442876</v>
+        <v>1846.707987640595</v>
       </c>
       <c r="AD3" t="n">
-        <v>1425372.47747466</v>
+        <v>1492095.378409314</v>
       </c>
       <c r="AE3" t="n">
-        <v>1950257.506676477</v>
+        <v>2041550.723341911</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.40584555213176e-06</v>
+        <v>2.818013690736523e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.78854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1764127.667442876</v>
+        <v>1846707.987640595</v>
       </c>
     </row>
     <row r="4">
@@ -12508,28 +12508,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1149.944685562663</v>
+        <v>1216.582245642745</v>
       </c>
       <c r="AB4" t="n">
-        <v>1573.405050765879</v>
+        <v>1664.581500309116</v>
       </c>
       <c r="AC4" t="n">
-        <v>1423.241481008641</v>
+        <v>1505.716178174422</v>
       </c>
       <c r="AD4" t="n">
-        <v>1149944.685562663</v>
+        <v>1216582.245642745</v>
       </c>
       <c r="AE4" t="n">
-        <v>1573405.050765879</v>
+        <v>1664581.500309116</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.546159660650512e-06</v>
+        <v>3.099272950126543e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.71770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1423241.481008641</v>
+        <v>1505716.178174422</v>
       </c>
     </row>
     <row r="5">
@@ -12614,28 +12614,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1063.330368484999</v>
+        <v>1118.847534584524</v>
       </c>
       <c r="AB5" t="n">
-        <v>1454.895520986234</v>
+        <v>1530.856556888113</v>
       </c>
       <c r="AC5" t="n">
-        <v>1316.042334421996</v>
+        <v>1384.753755669383</v>
       </c>
       <c r="AD5" t="n">
-        <v>1063330.368484999</v>
+        <v>1118847.534584524</v>
       </c>
       <c r="AE5" t="n">
-        <v>1454895.520986234</v>
+        <v>1530856.556888113</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.591181080957549e-06</v>
+        <v>3.189518268048738e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.41458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1316042.334421996</v>
+        <v>1384753.755669383</v>
       </c>
     </row>
     <row r="6">
@@ -12720,28 +12720,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1067.068069496306</v>
+        <v>1122.58523559583</v>
       </c>
       <c r="AB6" t="n">
-        <v>1460.009608405635</v>
+        <v>1535.970644307514</v>
       </c>
       <c r="AC6" t="n">
-        <v>1320.668340515756</v>
+        <v>1389.379761763142</v>
       </c>
       <c r="AD6" t="n">
-        <v>1067068.069496306</v>
+        <v>1122585.23559583</v>
       </c>
       <c r="AE6" t="n">
-        <v>1460009.608405635</v>
+        <v>1535970.644307513</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.591499253539224e-06</v>
+        <v>3.190156044147128e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.4125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1320668.340515756</v>
+        <v>1389379.761763142</v>
       </c>
     </row>
     <row r="7">
@@ -12826,28 +12826,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1073.799115836159</v>
+        <v>1129.316281935684</v>
       </c>
       <c r="AB7" t="n">
-        <v>1469.219322960628</v>
+        <v>1545.180358862508</v>
       </c>
       <c r="AC7" t="n">
-        <v>1328.999092839536</v>
+        <v>1397.710514086923</v>
       </c>
       <c r="AD7" t="n">
-        <v>1073799.115836159</v>
+        <v>1129316.281935684</v>
       </c>
       <c r="AE7" t="n">
-        <v>1469219.322960628</v>
+        <v>1545180.358862508</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.591340167248387e-06</v>
+        <v>3.189837156097933e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.41354166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1328999.092839536</v>
+        <v>1397710.514086924</v>
       </c>
     </row>
   </sheetData>
@@ -13123,28 +13123,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1754.819522638607</v>
+        <v>1829.251014340691</v>
       </c>
       <c r="AB2" t="n">
-        <v>2401.021488047651</v>
+        <v>2502.861938680105</v>
       </c>
       <c r="AC2" t="n">
-        <v>2171.871367083206</v>
+        <v>2263.992308041269</v>
       </c>
       <c r="AD2" t="n">
-        <v>1754819.522638607</v>
+        <v>1829251.014340691</v>
       </c>
       <c r="AE2" t="n">
-        <v>2401021.488047651</v>
+        <v>2502861.938680105</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.221486591538542e-06</v>
+        <v>2.555426338725631e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.13229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2171871.367083206</v>
+        <v>2263992.308041269</v>
       </c>
     </row>
     <row r="3">
@@ -13229,28 +13229,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1059.275573935409</v>
+        <v>1112.50190847832</v>
       </c>
       <c r="AB3" t="n">
-        <v>1449.347572198574</v>
+        <v>1522.174191300339</v>
       </c>
       <c r="AC3" t="n">
-        <v>1311.023874080035</v>
+        <v>1376.90002286753</v>
       </c>
       <c r="AD3" t="n">
-        <v>1059275.573935409</v>
+        <v>1112501.90847832</v>
       </c>
       <c r="AE3" t="n">
-        <v>1449347.572198574</v>
+        <v>1522174.191300339</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.56716845695021e-06</v>
+        <v>3.278614419390625e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.01458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1311023.874080035</v>
+        <v>1376900.022867529</v>
       </c>
     </row>
     <row r="4">
@@ -13335,28 +13335,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>976.3437498822033</v>
+        <v>1040.129903068864</v>
       </c>
       <c r="AB4" t="n">
-        <v>1335.876591835119</v>
+        <v>1423.151620671581</v>
       </c>
       <c r="AC4" t="n">
-        <v>1208.382404824946</v>
+        <v>1287.328027400529</v>
       </c>
       <c r="AD4" t="n">
-        <v>976343.7498822033</v>
+        <v>1040129.903068864</v>
       </c>
       <c r="AE4" t="n">
-        <v>1335876.591835119</v>
+        <v>1423151.620671581</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.61522585914071e-06</v>
+        <v>3.379153510182978e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.6875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1208382.404824946</v>
+        <v>1287328.027400529</v>
       </c>
     </row>
     <row r="5">
@@ -13441,28 +13441,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>983.4455979351131</v>
+        <v>1047.231751121774</v>
       </c>
       <c r="AB5" t="n">
-        <v>1345.593653652534</v>
+        <v>1432.868682488996</v>
       </c>
       <c r="AC5" t="n">
-        <v>1217.172083900489</v>
+        <v>1296.117706476072</v>
       </c>
       <c r="AD5" t="n">
-        <v>983445.5979351131</v>
+        <v>1047231.751121774</v>
       </c>
       <c r="AE5" t="n">
-        <v>1345593.653652534</v>
+        <v>1432868.682488996</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.61522585914071e-06</v>
+        <v>3.379153510182978e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.6875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1217172.083900489</v>
+        <v>1296117.706476072</v>
       </c>
     </row>
   </sheetData>
@@ -24431,28 +24431,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1256.934114525251</v>
+        <v>1328.706470090937</v>
       </c>
       <c r="AB2" t="n">
-        <v>1719.792707512975</v>
+        <v>1817.994810770803</v>
       </c>
       <c r="AC2" t="n">
-        <v>1555.658105252161</v>
+        <v>1644.487937602579</v>
       </c>
       <c r="AD2" t="n">
-        <v>1256934.114525251</v>
+        <v>1328706.470090937</v>
       </c>
       <c r="AE2" t="n">
-        <v>1719792.707512975</v>
+        <v>1817994.810770803</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.400539995034371e-06</v>
+        <v>3.044571949120714e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>1555658.10525216</v>
+        <v>1644487.937602579</v>
       </c>
     </row>
     <row r="3">
@@ -24537,28 +24537,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>927.0516771918375</v>
+        <v>978.3786927148584</v>
       </c>
       <c r="AB3" t="n">
-        <v>1268.43300336739</v>
+        <v>1338.660890394099</v>
       </c>
       <c r="AC3" t="n">
-        <v>1147.375537782907</v>
+        <v>1210.900973837246</v>
       </c>
       <c r="AD3" t="n">
-        <v>927051.6771918375</v>
+        <v>978378.6927148585</v>
       </c>
       <c r="AE3" t="n">
-        <v>1268433.00336739</v>
+        <v>1338660.890394099</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.61602087309535e-06</v>
+        <v>3.512996299187389e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.05</v>
       </c>
       <c r="AH3" t="n">
-        <v>1147375.537782907</v>
+        <v>1210900.973837245</v>
       </c>
     </row>
     <row r="4">
@@ -24643,28 +24643,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>931.969033803016</v>
+        <v>983.2960493260371</v>
       </c>
       <c r="AB4" t="n">
-        <v>1275.161147621267</v>
+        <v>1345.389034647977</v>
       </c>
       <c r="AC4" t="n">
-        <v>1153.461557392204</v>
+        <v>1216.986993446543</v>
       </c>
       <c r="AD4" t="n">
-        <v>931969.0338030161</v>
+        <v>983296.0493260371</v>
       </c>
       <c r="AE4" t="n">
-        <v>1275161.147621267</v>
+        <v>1345389.034647977</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.618420819231272e-06</v>
+        <v>3.518213435942309e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.03333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1153461.557392204</v>
+        <v>1216986.993446543</v>
       </c>
     </row>
   </sheetData>
@@ -24940,28 +24940,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>845.4817555618309</v>
+        <v>902.641360462646</v>
       </c>
       <c r="AB2" t="n">
-        <v>1156.825437982249</v>
+        <v>1235.03373111134</v>
       </c>
       <c r="AC2" t="n">
-        <v>1046.419641795923</v>
+        <v>1117.163845194802</v>
       </c>
       <c r="AD2" t="n">
-        <v>845481.7555618309</v>
+        <v>902641.360462646</v>
       </c>
       <c r="AE2" t="n">
-        <v>1156825.43798225</v>
+        <v>1235033.73111134</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.532829206364199e-06</v>
+        <v>3.645875597812911e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.503125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1046419.641795923</v>
+        <v>1117163.845194801</v>
       </c>
     </row>
     <row r="3">
@@ -25046,28 +25046,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>856.5458780192027</v>
+        <v>913.5348907194257</v>
       </c>
       <c r="AB3" t="n">
-        <v>1171.963858443059</v>
+        <v>1249.938739797302</v>
       </c>
       <c r="AC3" t="n">
-        <v>1060.113272654859</v>
+        <v>1130.646340771087</v>
       </c>
       <c r="AD3" t="n">
-        <v>856545.8780192027</v>
+        <v>913534.8907194256</v>
       </c>
       <c r="AE3" t="n">
-        <v>1171963.858443059</v>
+        <v>1249938.739797302</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.533565170453199e-06</v>
+        <v>3.647626108242782e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.49791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1060113.272654859</v>
+        <v>1130646.340771087</v>
       </c>
     </row>
   </sheetData>
@@ -25343,28 +25343,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3791.904875998637</v>
+        <v>3895.614272217571</v>
       </c>
       <c r="AB2" t="n">
-        <v>5188.251538378235</v>
+        <v>5330.151309620636</v>
       </c>
       <c r="AC2" t="n">
-        <v>4693.092093311988</v>
+        <v>4821.449149544589</v>
       </c>
       <c r="AD2" t="n">
-        <v>3791904.875998637</v>
+        <v>3895614.272217571</v>
       </c>
       <c r="AE2" t="n">
-        <v>5188251.538378235</v>
+        <v>5330151.309620637</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.405903616508216e-07</v>
+        <v>1.631231326736972e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.06875</v>
       </c>
       <c r="AH2" t="n">
-        <v>4693092.093311988</v>
+        <v>4821449.149544589</v>
       </c>
     </row>
     <row r="3">
@@ -25449,28 +25449,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1807.083264036524</v>
+        <v>1887.660717290027</v>
       </c>
       <c r="AB3" t="n">
-        <v>2472.531044741822</v>
+        <v>2582.780671109616</v>
       </c>
       <c r="AC3" t="n">
-        <v>2236.556152050778</v>
+        <v>2336.283708814352</v>
       </c>
       <c r="AD3" t="n">
-        <v>1807083.264036524</v>
+        <v>1887660.717290027</v>
       </c>
       <c r="AE3" t="n">
-        <v>2472531.044741822</v>
+        <v>2582780.671109616</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.273425925868973e-06</v>
+        <v>2.471182584674205e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.58645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2236556.152050778</v>
+        <v>2336283.708814352</v>
       </c>
     </row>
     <row r="4">
@@ -25555,28 +25555,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1448.120155367186</v>
+        <v>1505.736526381505</v>
       </c>
       <c r="AB4" t="n">
-        <v>1981.381883125753</v>
+        <v>2060.215143802438</v>
       </c>
       <c r="AC4" t="n">
-        <v>1792.281577087169</v>
+        <v>1863.591102008048</v>
       </c>
       <c r="AD4" t="n">
-        <v>1448120.155367186</v>
+        <v>1505736.526381505</v>
       </c>
       <c r="AE4" t="n">
-        <v>1981381.883125753</v>
+        <v>2060215.143802438</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.429295967302669e-06</v>
+        <v>2.773660588332369e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.21458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1792281.577087169</v>
+        <v>1863591.102008048</v>
       </c>
     </row>
     <row r="5">
@@ -25661,28 +25661,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1262.389948836989</v>
+        <v>1331.444145789339</v>
       </c>
       <c r="AB5" t="n">
-        <v>1727.257620712716</v>
+        <v>1821.740619439083</v>
       </c>
       <c r="AC5" t="n">
-        <v>1562.41057761319</v>
+        <v>1647.876251548834</v>
       </c>
       <c r="AD5" t="n">
-        <v>1262389.948836989</v>
+        <v>1331444.145789339</v>
       </c>
       <c r="AE5" t="n">
-        <v>1727257.620712716</v>
+        <v>1821740.619439083</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.512539493872886e-06</v>
+        <v>2.935201160868467e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.596875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1562410.57761319</v>
+        <v>1647876.251548834</v>
       </c>
     </row>
     <row r="6">
@@ -25767,28 +25767,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1163.819197792824</v>
+        <v>1221.350227952571</v>
       </c>
       <c r="AB6" t="n">
-        <v>1592.388770499465</v>
+        <v>1671.105264053952</v>
       </c>
       <c r="AC6" t="n">
-        <v>1440.413421174672</v>
+        <v>1511.617323063612</v>
       </c>
       <c r="AD6" t="n">
-        <v>1163819.197792824</v>
+        <v>1221350.227952571</v>
       </c>
       <c r="AE6" t="n">
-        <v>1592388.770499465</v>
+        <v>1671105.264053952</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.555315280169596e-06</v>
+        <v>3.018210919029346e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.30625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1440413.421174672</v>
+        <v>1511617.323063612</v>
       </c>
     </row>
     <row r="7">
@@ -25873,28 +25873,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1149.118732789408</v>
+        <v>1206.649762949156</v>
       </c>
       <c r="AB7" t="n">
-        <v>1572.274945743048</v>
+        <v>1650.991439297535</v>
       </c>
       <c r="AC7" t="n">
-        <v>1422.219231623077</v>
+        <v>1493.423133512016</v>
       </c>
       <c r="AD7" t="n">
-        <v>1149118.732789408</v>
+        <v>1206649.762949156</v>
       </c>
       <c r="AE7" t="n">
-        <v>1572274.945743048</v>
+        <v>1650991.439297535</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.56331650638337e-06</v>
+        <v>3.033737924152963e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.25208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1422219.231623077</v>
+        <v>1493423.133512016</v>
       </c>
     </row>
     <row r="8">
@@ -25979,28 +25979,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1154.54546721482</v>
+        <v>1212.076497374568</v>
       </c>
       <c r="AB8" t="n">
-        <v>1579.700043194522</v>
+        <v>1658.41653674901</v>
       </c>
       <c r="AC8" t="n">
-        <v>1428.935688194972</v>
+        <v>1500.139590083912</v>
       </c>
       <c r="AD8" t="n">
-        <v>1154545.46721482</v>
+        <v>1212076.497374568</v>
       </c>
       <c r="AE8" t="n">
-        <v>1579700.043194522</v>
+        <v>1658416.53674901</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.56347037611825e-06</v>
+        <v>3.03403652040534e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.25208333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1428935.688194972</v>
+        <v>1500139.590083912</v>
       </c>
     </row>
   </sheetData>
@@ -26276,28 +26276,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6181.009588931173</v>
+        <v>6336.667706375649</v>
       </c>
       <c r="AB2" t="n">
-        <v>8457.130006473904</v>
+        <v>8670.10830991293</v>
       </c>
       <c r="AC2" t="n">
-        <v>7649.993388312227</v>
+        <v>7842.645341387951</v>
       </c>
       <c r="AD2" t="n">
-        <v>6181009.588931173</v>
+        <v>6336667.706375649</v>
       </c>
       <c r="AE2" t="n">
-        <v>8457130.006473904</v>
+        <v>8670108.309912929</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.485494827703249e-07</v>
+        <v>1.21693320975064e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.81458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>7649993.388312227</v>
+        <v>7842645.341387951</v>
       </c>
     </row>
     <row r="3">
@@ -26382,28 +26382,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2360.933917827349</v>
+        <v>2444.841732756219</v>
       </c>
       <c r="AB3" t="n">
-        <v>3230.333943424982</v>
+        <v>3345.140317562208</v>
       </c>
       <c r="AC3" t="n">
-        <v>2922.035405666544</v>
+        <v>3025.884820587868</v>
       </c>
       <c r="AD3" t="n">
-        <v>2360933.917827349</v>
+        <v>2444841.732756219</v>
       </c>
       <c r="AE3" t="n">
-        <v>3230333.943424982</v>
+        <v>3345140.317562208</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.123915198765218e-06</v>
+        <v>2.108905745292604e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.74166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2922035.405666544</v>
+        <v>3025884.820587867</v>
       </c>
     </row>
     <row r="4">
@@ -26488,28 +26488,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1828.370576725001</v>
+        <v>1912.107709944729</v>
       </c>
       <c r="AB4" t="n">
-        <v>2501.657285092152</v>
+        <v>2616.230124984976</v>
       </c>
       <c r="AC4" t="n">
-        <v>2262.902624901008</v>
+        <v>2366.540793758452</v>
       </c>
       <c r="AD4" t="n">
-        <v>1828370.576725001</v>
+        <v>1912107.709944729</v>
       </c>
       <c r="AE4" t="n">
-        <v>2501657.285092152</v>
+        <v>2616230.124984976</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.297692060632346e-06</v>
+        <v>2.434979298522542e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.90208333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2262902.624901008</v>
+        <v>2366540.793758452</v>
       </c>
     </row>
     <row r="5">
@@ -26594,28 +26594,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1609.76308369133</v>
+        <v>1669.697326720503</v>
       </c>
       <c r="AB5" t="n">
-        <v>2202.54886884155</v>
+        <v>2284.553544266255</v>
       </c>
       <c r="AC5" t="n">
-        <v>1992.340696096064</v>
+        <v>2066.518960392521</v>
       </c>
       <c r="AD5" t="n">
-        <v>1609763.08369133</v>
+        <v>1669697.326720503</v>
       </c>
       <c r="AE5" t="n">
-        <v>2202548.86884155</v>
+        <v>2284553.544266255</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.390363168709953e-06</v>
+        <v>2.608866645594821e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.10833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1992340.696096064</v>
+        <v>2066518.960392521</v>
       </c>
     </row>
     <row r="6">
@@ -26700,28 +26700,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1463.777974833717</v>
+        <v>1535.613618203893</v>
       </c>
       <c r="AB6" t="n">
-        <v>2002.805602494103</v>
+        <v>2101.094298918094</v>
       </c>
       <c r="AC6" t="n">
-        <v>1811.660646747383</v>
+        <v>1900.56880793372</v>
       </c>
       <c r="AD6" t="n">
-        <v>1463777.974833717</v>
+        <v>1535613.618203893</v>
       </c>
       <c r="AE6" t="n">
-        <v>2002805.602494103</v>
+        <v>2101094.298918094</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.447300297512835e-06</v>
+        <v>2.71570303163603e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.671875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1811660.646747383</v>
+        <v>1900568.80793372</v>
       </c>
     </row>
     <row r="7">
@@ -26806,28 +26806,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1361.554505647174</v>
+        <v>1421.403407821776</v>
       </c>
       <c r="AB7" t="n">
-        <v>1862.938942171898</v>
+        <v>1944.826850474406</v>
       </c>
       <c r="AC7" t="n">
-        <v>1685.142664182239</v>
+        <v>1759.215305446756</v>
       </c>
       <c r="AD7" t="n">
-        <v>1361554.505647174</v>
+        <v>1421403.407821776</v>
       </c>
       <c r="AE7" t="n">
-        <v>1862938.942171898</v>
+        <v>1944826.850474406</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.488075585066982e-06</v>
+        <v>2.792213464347833e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.37916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1685142.664182239</v>
+        <v>1759215.305446756</v>
       </c>
     </row>
     <row r="8">
@@ -26912,28 +26912,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1286.389248494449</v>
+        <v>1346.238150669051</v>
       </c>
       <c r="AB8" t="n">
-        <v>1760.09452127843</v>
+        <v>1841.982429580938</v>
       </c>
       <c r="AC8" t="n">
-        <v>1592.113570475792</v>
+        <v>1666.18621174031</v>
       </c>
       <c r="AD8" t="n">
-        <v>1286389.248494449</v>
+        <v>1346238.150669051</v>
       </c>
       <c r="AE8" t="n">
-        <v>1760094.52127843</v>
+        <v>1841982.429580938</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.514320042874561e-06</v>
+        <v>2.841458361038703e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.2</v>
       </c>
       <c r="AH8" t="n">
-        <v>1592113.570475792</v>
+        <v>1666186.21174031</v>
       </c>
     </row>
     <row r="9">
@@ -27018,28 +27018,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1260.991558571313</v>
+        <v>1320.840460745914</v>
       </c>
       <c r="AB9" t="n">
-        <v>1725.344281458594</v>
+        <v>1807.232189761102</v>
       </c>
       <c r="AC9" t="n">
-        <v>1560.679844772093</v>
+        <v>1634.75248603661</v>
       </c>
       <c r="AD9" t="n">
-        <v>1260991.558571313</v>
+        <v>1320840.460745914</v>
       </c>
       <c r="AE9" t="n">
-        <v>1725344.281458594</v>
+        <v>1807232.189761102</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.522919921704162e-06</v>
+        <v>2.85759510684701e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.14166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1560679.844772093</v>
+        <v>1634752.48603661</v>
       </c>
     </row>
     <row r="10">
@@ -27124,28 +27124,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1262.616027687378</v>
+        <v>1322.464929861979</v>
       </c>
       <c r="AB10" t="n">
-        <v>1727.566951769714</v>
+        <v>1809.454860072222</v>
       </c>
       <c r="AC10" t="n">
-        <v>1562.690386548257</v>
+        <v>1636.763027812774</v>
       </c>
       <c r="AD10" t="n">
-        <v>1262616.027687378</v>
+        <v>1322464.929861979</v>
       </c>
       <c r="AE10" t="n">
-        <v>1727566.951769714</v>
+        <v>1809454.860072222</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.52425438566048e-06</v>
+        <v>2.860099084644851e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.13333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1562690.386548257</v>
+        <v>1636763.027812774</v>
       </c>
     </row>
     <row r="11">
@@ -27230,28 +27230,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1268.824776065842</v>
+        <v>1328.673678240443</v>
       </c>
       <c r="AB11" t="n">
-        <v>1736.062035211775</v>
+        <v>1817.949943514283</v>
       </c>
       <c r="AC11" t="n">
-        <v>1570.374711149532</v>
+        <v>1644.44735241405</v>
       </c>
       <c r="AD11" t="n">
-        <v>1268824.776065842</v>
+        <v>1328673.678240443</v>
       </c>
       <c r="AE11" t="n">
-        <v>1736062.035211775</v>
+        <v>1817949.943514283</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.524106111887556e-06</v>
+        <v>2.859820864889535e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.13333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1570374.711149532</v>
+        <v>1644447.35241405</v>
       </c>
     </row>
   </sheetData>
@@ -27527,28 +27527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>840.2527039746924</v>
+        <v>904.2888033713054</v>
       </c>
       <c r="AB2" t="n">
-        <v>1149.670818911252</v>
+        <v>1237.28783517902</v>
       </c>
       <c r="AC2" t="n">
-        <v>1039.94784952749</v>
+        <v>1119.202820733916</v>
       </c>
       <c r="AD2" t="n">
-        <v>840252.7039746924</v>
+        <v>904288.8033713055</v>
       </c>
       <c r="AE2" t="n">
-        <v>1149670.818911252</v>
+        <v>1237287.83517902</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.408537367580212e-06</v>
+        <v>3.52264506307695e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.090625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1039947.84952749</v>
+        <v>1119202.820733916</v>
       </c>
     </row>
   </sheetData>
@@ -27824,28 +27824,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2014.816150805433</v>
+        <v>2101.242385745606</v>
       </c>
       <c r="AB2" t="n">
-        <v>2756.760344947208</v>
+        <v>2875.012532448739</v>
       </c>
       <c r="AC2" t="n">
-        <v>2493.659006762891</v>
+        <v>2600.625371457263</v>
       </c>
       <c r="AD2" t="n">
-        <v>2014816.150805433</v>
+        <v>2101242.385745605</v>
       </c>
       <c r="AE2" t="n">
-        <v>2756760.344947208</v>
+        <v>2875012.532448738</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.145547708795186e-06</v>
+        <v>2.359007447208238e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.84791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2493659.006762891</v>
+        <v>2600625.371457263</v>
       </c>
     </row>
     <row r="3">
@@ -27930,28 +27930,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1177.584184401153</v>
+        <v>1242.297274046618</v>
       </c>
       <c r="AB3" t="n">
-        <v>1611.222632445331</v>
+        <v>1699.76593663828</v>
       </c>
       <c r="AC3" t="n">
-        <v>1457.449805769916</v>
+        <v>1537.542661281998</v>
       </c>
       <c r="AD3" t="n">
-        <v>1177584.184401153</v>
+        <v>1242297.274046618</v>
       </c>
       <c r="AE3" t="n">
-        <v>1611222.632445331</v>
+        <v>1699765.936638281</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.512318935303239e-06</v>
+        <v>3.114293366870349e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.24791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1457449.805769916</v>
+        <v>1537542.661281998</v>
       </c>
     </row>
     <row r="4">
@@ -28036,28 +28036,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1008.058241074863</v>
+        <v>1072.856582066349</v>
       </c>
       <c r="AB4" t="n">
-        <v>1379.269757829521</v>
+        <v>1467.929706675119</v>
       </c>
       <c r="AC4" t="n">
-        <v>1247.634187959533</v>
+        <v>1327.832555722328</v>
       </c>
       <c r="AD4" t="n">
-        <v>1008058.241074863</v>
+        <v>1072856.582066349</v>
       </c>
       <c r="AE4" t="n">
-        <v>1379269.757829521</v>
+        <v>1467929.706675119</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.605563089504529e-06</v>
+        <v>3.306309511183378e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.59479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1247634.187959533</v>
+        <v>1327832.555722328</v>
       </c>
     </row>
     <row r="5">
@@ -28142,28 +28142,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1009.641057999158</v>
+        <v>1074.439398990644</v>
       </c>
       <c r="AB5" t="n">
-        <v>1381.435437774296</v>
+        <v>1470.095386619894</v>
       </c>
       <c r="AC5" t="n">
-        <v>1249.59317844993</v>
+        <v>1329.791546212725</v>
       </c>
       <c r="AD5" t="n">
-        <v>1009641.057999158</v>
+        <v>1074439.398990644</v>
       </c>
       <c r="AE5" t="n">
-        <v>1381435.437774296</v>
+        <v>1470095.386619894</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.608992384142405e-06</v>
+        <v>3.313371400904172e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.571875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1249593.17844993</v>
+        <v>1329791.546212725</v>
       </c>
     </row>
   </sheetData>
@@ -28439,28 +28439,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2975.470060165218</v>
+        <v>3076.651233923588</v>
       </c>
       <c r="AB2" t="n">
-        <v>4071.169404792874</v>
+        <v>4209.609950527431</v>
       </c>
       <c r="AC2" t="n">
-        <v>3682.622710721435</v>
+        <v>3807.850685073608</v>
       </c>
       <c r="AD2" t="n">
-        <v>2975470.060165218</v>
+        <v>3076651.233923588</v>
       </c>
       <c r="AE2" t="n">
-        <v>4071169.404792874</v>
+        <v>4209609.950527431</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.508825976439761e-07</v>
+        <v>1.883873494623029e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.221875</v>
       </c>
       <c r="AH2" t="n">
-        <v>3682622.710721435</v>
+        <v>3807850.685073608</v>
       </c>
     </row>
     <row r="3">
@@ -28545,28 +28545,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1556.681433692875</v>
+        <v>1624.164026319495</v>
       </c>
       <c r="AB3" t="n">
-        <v>2129.920213516541</v>
+        <v>2222.252873870156</v>
       </c>
       <c r="AC3" t="n">
-        <v>1926.643617700317</v>
+        <v>2010.164178539485</v>
       </c>
       <c r="AD3" t="n">
-        <v>1556681.433692875</v>
+        <v>1624164.026319495</v>
       </c>
       <c r="AE3" t="n">
-        <v>2129920.213516541</v>
+        <v>2222252.873870156</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.359504269482054e-06</v>
+        <v>2.693428258598764e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.04583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1926643.617700316</v>
+        <v>2010164.178539485</v>
       </c>
     </row>
     <row r="4">
@@ -28651,28 +28651,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1247.767328666764</v>
+        <v>1315.249831784833</v>
       </c>
       <c r="AB4" t="n">
-        <v>1707.250306691342</v>
+        <v>1799.582844575408</v>
       </c>
       <c r="AC4" t="n">
-        <v>1544.312733561574</v>
+        <v>1627.833183619515</v>
       </c>
       <c r="AD4" t="n">
-        <v>1247767.328666764</v>
+        <v>1315249.831784833</v>
       </c>
       <c r="AE4" t="n">
-        <v>1707250.306691342</v>
+        <v>1799582.844575408</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.504935222329388e-06</v>
+        <v>2.981553751741341e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.88229166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1544312.733561574</v>
+        <v>1627833.183619515</v>
       </c>
     </row>
     <row r="5">
@@ -28757,28 +28757,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1109.623526818588</v>
+        <v>1165.844812116435</v>
       </c>
       <c r="AB5" t="n">
-        <v>1518.235862528256</v>
+        <v>1595.160305380827</v>
       </c>
       <c r="AC5" t="n">
-        <v>1373.337562665975</v>
+        <v>1442.92044465683</v>
       </c>
       <c r="AD5" t="n">
-        <v>1109623.526818588</v>
+        <v>1165844.812116435</v>
       </c>
       <c r="AE5" t="n">
-        <v>1518235.862528256</v>
+        <v>1595160.305380827</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.572383739920206e-06</v>
+        <v>3.115181683155573e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.415625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1373337.562665975</v>
+        <v>1442920.44465683</v>
       </c>
     </row>
     <row r="6">
@@ -28863,28 +28863,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1091.109698000878</v>
+        <v>1147.330983298725</v>
       </c>
       <c r="AB6" t="n">
-        <v>1492.904425167384</v>
+        <v>1569.828868019954</v>
       </c>
       <c r="AC6" t="n">
-        <v>1350.423722133929</v>
+        <v>1420.006604124783</v>
       </c>
       <c r="AD6" t="n">
-        <v>1091109.698000878</v>
+        <v>1147330.983298725</v>
       </c>
       <c r="AE6" t="n">
-        <v>1492904.425167384</v>
+        <v>1569828.868019954</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.582603212282451e-06</v>
+        <v>3.135428339430457e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.34791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1350423.722133928</v>
+        <v>1420006.604124783</v>
       </c>
     </row>
     <row r="7">
@@ -28969,28 +28969,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1096.071221184346</v>
+        <v>1152.292506482193</v>
       </c>
       <c r="AB7" t="n">
-        <v>1499.693000073959</v>
+        <v>1576.61744292653</v>
       </c>
       <c r="AC7" t="n">
-        <v>1356.564404979245</v>
+        <v>1426.1472869701</v>
       </c>
       <c r="AD7" t="n">
-        <v>1096071.221184346</v>
+        <v>1152292.506482193</v>
       </c>
       <c r="AE7" t="n">
-        <v>1499693.000073959</v>
+        <v>1576617.44292653</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.583703770844539e-06</v>
+        <v>3.137608748567752e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.34166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1356564.404979246</v>
+        <v>1426147.2869701</v>
       </c>
     </row>
   </sheetData>
